--- a/INPUT_ExtrusionPlan.xlsx
+++ b/INPUT_ExtrusionPlan.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunor\OneDrive\Documentos\GitHub\COFACTORYv01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952A8A74-DF89-4B65-8268-A3211733B2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E96CC6-EAAA-4CFE-9A5D-F0BE89E92629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8745" yWindow="2730" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4725" yWindow="3540" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TestRun3" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
-    <sheet name="TestRun2" sheetId="2" r:id="rId3"/>
+    <sheet name="TestRun2" sheetId="2" r:id="rId1"/>
+    <sheet name="TestRun3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
     <sheet name="TestRun1" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -575,11 +575,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B823DE58-5387-4144-848F-C0C115C08B47}">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B96B37-5663-472D-B820-25240F2560A1}">
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>285000</v>
+        <v>3134000</v>
       </c>
       <c r="C2" s="2">
-        <v>45635</v>
+        <v>45642</v>
       </c>
       <c r="D2" s="3">
         <v>9</v>
@@ -620,13 +620,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1">
-        <v>2030000</v>
+        <v>490000</v>
       </c>
       <c r="C3" s="2">
-        <v>45635.092361111114</v>
+        <v>45642.092361111114</v>
       </c>
       <c r="D3" s="3">
         <v>9</v>
@@ -634,13 +634,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1">
-        <v>4091500</v>
+        <v>50000</v>
       </c>
       <c r="C4" s="2">
-        <v>45635.34652777778</v>
+        <v>45642.34652777778</v>
       </c>
       <c r="D4" s="3">
         <v>9</v>
@@ -648,13 +648,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1">
-        <v>381000</v>
+        <v>80000</v>
       </c>
       <c r="C5" s="2">
-        <v>45635.564583333333</v>
+        <v>45642.439583333333</v>
       </c>
       <c r="D5" s="3">
         <v>9</v>
@@ -662,13 +662,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1">
-        <v>180000</v>
+        <v>85000</v>
       </c>
       <c r="C6" s="2">
-        <v>45636.454861111109</v>
+        <v>45642.454861111109</v>
       </c>
       <c r="D6" s="3">
         <v>9</v>
@@ -676,13 +676,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1">
-        <v>3576600</v>
+        <v>150000</v>
       </c>
       <c r="C7" s="2">
-        <v>45636.467361111114</v>
+        <v>45642.467361111114</v>
       </c>
       <c r="D7" s="3">
         <v>9</v>
@@ -690,13 +690,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1">
-        <v>1236000</v>
+        <v>185000</v>
       </c>
       <c r="C8" s="2">
-        <v>45636.548611111109</v>
+        <v>45642.548611111109</v>
       </c>
       <c r="D8" s="3">
         <v>8</v>
@@ -704,13 +704,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1">
-        <v>437500</v>
+        <v>75000</v>
       </c>
       <c r="C9" s="2">
-        <v>45636.572916666664</v>
+        <v>45642.572916666664</v>
       </c>
       <c r="D9" s="3">
         <v>8</v>
@@ -718,13 +718,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>598500</v>
+        <v>31</v>
+      </c>
+      <c r="B10" s="6">
+        <v>15000</v>
       </c>
       <c r="C10" s="2">
-        <v>45637.913194444445</v>
+        <v>45642.913194444445</v>
       </c>
       <c r="D10" s="3">
         <v>8</v>
@@ -732,13 +732,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6">
-        <v>9000</v>
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1652000</v>
       </c>
       <c r="C11" s="2">
-        <v>45638.765972222223</v>
+        <v>45643.765972222223</v>
       </c>
       <c r="D11" s="3">
         <v>7</v>
@@ -746,13 +746,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B12" s="1">
-        <v>180000</v>
+        <v>2641000</v>
       </c>
       <c r="C12" s="2">
-        <v>45638.84375</v>
+        <v>45643.84375</v>
       </c>
       <c r="D12" s="3">
         <v>6</v>
@@ -760,13 +760,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B13" s="1">
-        <v>7500</v>
+        <v>1206400</v>
       </c>
       <c r="C13" s="2">
-        <v>45639.950694444444</v>
+        <v>45643.950694444444</v>
       </c>
       <c r="D13" s="3">
         <v>5</v>
@@ -774,13 +774,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1">
-        <v>217100</v>
+        <v>70000</v>
       </c>
       <c r="C14" s="2">
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="D14" s="3">
         <v>4</v>
@@ -788,27 +788,485 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B15" s="1">
-        <v>27900</v>
+        <v>48000</v>
       </c>
       <c r="C15" s="2">
-        <v>45640.107638888891</v>
+        <v>45644.107638888891</v>
       </c>
       <c r="D15" s="3">
         <v>4</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="6">
+        <v>912000</v>
+      </c>
+      <c r="C16" s="2">
+        <v>45644.119444444441</v>
+      </c>
+      <c r="D16" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>811000</v>
+      </c>
+      <c r="C17" s="2">
+        <v>45644.820833333331</v>
+      </c>
+      <c r="D17" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="6">
+        <v>690000</v>
+      </c>
+      <c r="C18" s="2">
+        <v>45645.138888888891</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="1">
+        <v>90000</v>
+      </c>
+      <c r="C19" s="2">
+        <v>45645.35</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>57200</v>
+      </c>
+      <c r="C20" s="2">
+        <v>45646.194444444445</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1">
+        <v>8500</v>
+      </c>
+      <c r="C21" s="2">
+        <v>45646.302083333336</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="1">
+        <v>90000</v>
+      </c>
+      <c r="C22" s="2">
+        <v>45643.107638888891</v>
+      </c>
+      <c r="D22" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="1">
+        <v>500000</v>
+      </c>
+      <c r="C23" s="2">
+        <v>45643.119444444441</v>
+      </c>
+      <c r="D23" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="1">
+        <v>21500</v>
+      </c>
+      <c r="C24" s="2">
+        <v>45643.820833333331</v>
+      </c>
+      <c r="D24" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C25" s="2">
+        <v>45644.138888888891</v>
+      </c>
+      <c r="D25" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="1">
+        <v>270000</v>
+      </c>
+      <c r="C26" s="2">
+        <v>45644.35</v>
+      </c>
+      <c r="D26" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="1">
+        <v>320000</v>
+      </c>
+      <c r="C27" s="2">
+        <v>45645.194444444445</v>
+      </c>
+      <c r="D27" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="1">
+        <v>448000</v>
+      </c>
+      <c r="C28" s="2">
+        <v>45645.302083333336</v>
+      </c>
+      <c r="D28" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="1">
+        <v>102400</v>
+      </c>
+      <c r="C29" s="2">
+        <v>45644.138888888891</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="1">
+        <v>44800</v>
+      </c>
+      <c r="C30" s="2">
+        <v>45645.194444444445</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="1">
+        <v>75000</v>
+      </c>
+      <c r="C31" s="2">
+        <v>45645.194444444445</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A15">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  <conditionalFormatting sqref="A2:A31">
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B823DE58-5387-4144-848F-C0C115C08B47}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>285000</v>
+      </c>
+      <c r="C2" s="2">
+        <v>45635</v>
+      </c>
+      <c r="D2" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2030000</v>
+      </c>
+      <c r="C3" s="2">
+        <v>45635.092361111114</v>
+      </c>
+      <c r="D3" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4091500</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45635.34652777778</v>
+      </c>
+      <c r="D4" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>381000</v>
+      </c>
+      <c r="C5" s="2">
+        <v>45635.564583333333</v>
+      </c>
+      <c r="D5" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="1">
+        <v>180000</v>
+      </c>
+      <c r="C6" s="2">
+        <v>45636.454861111109</v>
+      </c>
+      <c r="D6" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3576600</v>
+      </c>
+      <c r="C7" s="2">
+        <v>45636.467361111114</v>
+      </c>
+      <c r="D7" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1236000</v>
+      </c>
+      <c r="C8" s="2">
+        <v>45636.548611111109</v>
+      </c>
+      <c r="D8" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>437500</v>
+      </c>
+      <c r="C9" s="2">
+        <v>45636.572916666664</v>
+      </c>
+      <c r="D9" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>598500</v>
+      </c>
+      <c r="C10" s="2">
+        <v>45637.913194444445</v>
+      </c>
+      <c r="D10" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6">
+        <v>9000</v>
+      </c>
+      <c r="C11" s="2">
+        <v>45638.765972222223</v>
+      </c>
+      <c r="D11" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1">
+        <v>180000</v>
+      </c>
+      <c r="C12" s="2">
+        <v>45638.84375</v>
+      </c>
+      <c r="D12" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="1">
+        <v>7500</v>
+      </c>
+      <c r="C13" s="2">
+        <v>45639.950694444444</v>
+      </c>
+      <c r="D13" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1">
+        <v>217100</v>
+      </c>
+      <c r="C14" s="2">
+        <v>45640</v>
+      </c>
+      <c r="D14" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1">
+        <v>27900</v>
+      </c>
+      <c r="C15" s="2">
+        <v>45640.107638888891</v>
+      </c>
+      <c r="D15" s="3">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:A15">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1489128F-FBF1-4067-AD78-4C7148848C00}">
   <dimension ref="A1:D23"/>
   <sheetViews>
@@ -1148,465 +1606,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A23">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B96B37-5663-472D-B820-25240F2560A1}">
-  <dimension ref="A1:D31"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="40.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>3134000</v>
-      </c>
-      <c r="C2" s="2">
-        <v>45642</v>
-      </c>
-      <c r="D2" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="1">
-        <v>490000</v>
-      </c>
-      <c r="C3" s="2">
-        <v>45642.092361111114</v>
-      </c>
-      <c r="D3" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="1">
-        <v>50000</v>
-      </c>
-      <c r="C4" s="2">
-        <v>45642.34652777778</v>
-      </c>
-      <c r="D4" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="1">
-        <v>80000</v>
-      </c>
-      <c r="C5" s="2">
-        <v>45642.439583333333</v>
-      </c>
-      <c r="D5" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="1">
-        <v>85000</v>
-      </c>
-      <c r="C6" s="2">
-        <v>45642.454861111109</v>
-      </c>
-      <c r="D6" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="1">
-        <v>150000</v>
-      </c>
-      <c r="C7" s="2">
-        <v>45642.467361111114</v>
-      </c>
-      <c r="D7" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="1">
-        <v>185000</v>
-      </c>
-      <c r="C8" s="2">
-        <v>45642.548611111109</v>
-      </c>
-      <c r="D8" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="1">
-        <v>75000</v>
-      </c>
-      <c r="C9" s="2">
-        <v>45642.572916666664</v>
-      </c>
-      <c r="D9" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="6">
-        <v>15000</v>
-      </c>
-      <c r="C10" s="2">
-        <v>45642.913194444445</v>
-      </c>
-      <c r="D10" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1652000</v>
-      </c>
-      <c r="C11" s="2">
-        <v>45643.765972222223</v>
-      </c>
-      <c r="D11" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1">
-        <v>2641000</v>
-      </c>
-      <c r="C12" s="2">
-        <v>45643.84375</v>
-      </c>
-      <c r="D12" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1206400</v>
-      </c>
-      <c r="C13" s="2">
-        <v>45643.950694444444</v>
-      </c>
-      <c r="D13" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="1">
-        <v>70000</v>
-      </c>
-      <c r="C14" s="2">
-        <v>45644</v>
-      </c>
-      <c r="D14" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1">
-        <v>48000</v>
-      </c>
-      <c r="C15" s="2">
-        <v>45644.107638888891</v>
-      </c>
-      <c r="D15" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="6">
-        <v>912000</v>
-      </c>
-      <c r="C16" s="2">
-        <v>45644.119444444441</v>
-      </c>
-      <c r="D16" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1">
-        <v>811000</v>
-      </c>
-      <c r="C17" s="2">
-        <v>45644.820833333331</v>
-      </c>
-      <c r="D17" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="6">
-        <v>690000</v>
-      </c>
-      <c r="C18" s="2">
-        <v>45645.138888888891</v>
-      </c>
-      <c r="D18" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="1">
-        <v>90000</v>
-      </c>
-      <c r="C19" s="2">
-        <v>45645.35</v>
-      </c>
-      <c r="D19" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1">
-        <v>57200</v>
-      </c>
-      <c r="C20" s="2">
-        <v>45646.194444444445</v>
-      </c>
-      <c r="D20" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="1">
-        <v>8500</v>
-      </c>
-      <c r="C21" s="2">
-        <v>45646.302083333336</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="1">
-        <v>90000</v>
-      </c>
-      <c r="C22" s="2">
-        <v>45643.107638888891</v>
-      </c>
-      <c r="D22" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="1">
-        <v>500000</v>
-      </c>
-      <c r="C23" s="2">
-        <v>45643.119444444441</v>
-      </c>
-      <c r="D23" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="1">
-        <v>21500</v>
-      </c>
-      <c r="C24" s="2">
-        <v>45643.820833333331</v>
-      </c>
-      <c r="D24" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="1">
-        <v>43000</v>
-      </c>
-      <c r="C25" s="2">
-        <v>45644.138888888891</v>
-      </c>
-      <c r="D25" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="1">
-        <v>270000</v>
-      </c>
-      <c r="C26" s="2">
-        <v>45644.35</v>
-      </c>
-      <c r="D26" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="1">
-        <v>320000</v>
-      </c>
-      <c r="C27" s="2">
-        <v>45645.194444444445</v>
-      </c>
-      <c r="D27" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="1">
-        <v>448000</v>
-      </c>
-      <c r="C28" s="2">
-        <v>45645.302083333336</v>
-      </c>
-      <c r="D28" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="1">
-        <v>102400</v>
-      </c>
-      <c r="C29" s="2">
-        <v>45644.138888888891</v>
-      </c>
-      <c r="D29" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="1">
-        <v>44800</v>
-      </c>
-      <c r="C30" s="2">
-        <v>45645.194444444445</v>
-      </c>
-      <c r="D30" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="1">
-        <v>75000</v>
-      </c>
-      <c r="C31" s="2">
-        <v>45645.194444444445</v>
-      </c>
-      <c r="D31" s="3">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A2:A31">
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/INPUT_ExtrusionPlan.xlsx
+++ b/INPUT_ExtrusionPlan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunor\OneDrive\Documentos\GitHub\COFACTORYv01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED00D37A-1CA5-40DA-B96B-8C7D2F0C8790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B070A8-2751-408C-8D70-C60DB1BE91D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7185" yWindow="4185" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7875" yWindow="4875" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestRun1" sheetId="1" r:id="rId1"/>
@@ -289,7 +289,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -617,7 +617,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,7 +651,7 @@
         <v>1384500</v>
       </c>
       <c r="C2" s="2">
-        <v>45808.092361111114</v>
+        <v>45824.092361111114</v>
       </c>
       <c r="D2" s="3">
         <v>4</v>
@@ -666,7 +666,7 @@
         <v>485000</v>
       </c>
       <c r="C3" s="2">
-        <v>45443.147916666669</v>
+        <v>45824.147916666669</v>
       </c>
       <c r="D3" s="3">
         <v>5</v>
@@ -681,7 +681,7 @@
         <v>143000</v>
       </c>
       <c r="C4" s="2">
-        <v>45443.063888888886</v>
+        <v>45824.063888888886</v>
       </c>
       <c r="D4" s="3">
         <v>9</v>
@@ -696,7 +696,7 @@
         <v>880000</v>
       </c>
       <c r="C5" s="2">
-        <v>45443.050694444442</v>
+        <v>45824.050694444442</v>
       </c>
       <c r="D5" s="3">
         <v>8</v>
@@ -711,7 +711,7 @@
         <v>1875000</v>
       </c>
       <c r="C6" s="2">
-        <v>45444.548611111109</v>
+        <v>45825.548611111109</v>
       </c>
       <c r="D6" s="3">
         <v>2</v>
@@ -726,7 +726,7 @@
         <v>563000</v>
       </c>
       <c r="C7" s="2">
-        <v>45444.572916666664</v>
+        <v>45825.572916666664</v>
       </c>
       <c r="D7" s="3">
         <v>7</v>
@@ -741,7 +741,7 @@
         <v>51000</v>
       </c>
       <c r="C8" s="2">
-        <v>45444.746527777781</v>
+        <v>45825.746527777781</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -756,7 +756,7 @@
         <v>272000</v>
       </c>
       <c r="C9" s="2">
-        <v>45444.765972222223</v>
+        <v>45825.765972222223</v>
       </c>
       <c r="D9" s="3">
         <v>3</v>
@@ -771,7 +771,7 @@
         <v>64500</v>
       </c>
       <c r="C10" s="2">
-        <v>45444.950694444444</v>
+        <v>45825.950694444444</v>
       </c>
       <c r="D10" s="3">
         <v>6</v>
